--- a/REGULAR/TICC/BURAZON, CARIDAD.xlsx
+++ b/REGULAR/TICC/BURAZON, CARIDAD.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="265">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1869,7 +1869,7 @@
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1305" topLeftCell="A524" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K547" sqref="K547"/>
+      <selection pane="bottomLeft" activeCell="E541" sqref="E541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2036,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>303.28499999999997</v>
+        <v>305.78499999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2046,7 +2046,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>331.69600000000003</v>
+        <v>334.19600000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13675,13 +13675,15 @@
       <c r="B547" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C547" s="13"/>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D547" s="38"/>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H547" s="38"/>
       <c r="I547" s="9"/>
@@ -13713,13 +13715,15 @@
         <v>45292</v>
       </c>
       <c r="B549" s="20"/>
-      <c r="C549" s="13"/>
+      <c r="C549" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D549" s="38"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G549" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H549" s="38"/>
       <c r="I549" s="9"/>
@@ -13730,7 +13734,9 @@
       <c r="A550" s="39">
         <v>45323</v>
       </c>
-      <c r="B550" s="20"/>
+      <c r="B550" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="C550" s="13"/>
       <c r="D550" s="38"/>
       <c r="E550" s="9"/>
@@ -13742,7 +13748,9 @@
       <c r="H550" s="38"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="49">
+        <v>45327</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39">
